--- a/중간발표/도메인정의서.xlsx
+++ b/중간발표/도메인정의서.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724CC324-C974-4876-A8AD-C855721A4D84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5917ED-9C67-40CD-9BAC-7A56E6003E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{A2AAF442-88E4-4D8B-84AD-B156409A91C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{A2AAF442-88E4-4D8B-84AD-B156409A91C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +26,655 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>도메인 정의서</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
+  <si>
+    <t>엔티티명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화일정정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매좌석정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호장르정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트정보내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화개봉일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화시청등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화상영시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화줄거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화예고편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화포스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역_지역식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_영화식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관좌석수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화예매순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화예매율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식_상영방식식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_영화관식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정상영시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화상영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화상영중여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관_상영관식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정_상영일정식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보관객수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보예매시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보_예매정보식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석_좌석문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류_관객종류식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원임시아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원임시비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원본인인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원본인인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원누적포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원_회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자_사용자식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법_결제방법식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보_결제정보식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자_식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트정보식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원_아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트정보_포인트정보식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접미어 2자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접미어 3자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접미어 4자</t>
+  </si>
+  <si>
+    <t>식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영시간</t>
+  </si>
+  <si>
+    <t>장르</t>
+  </si>
+  <si>
+    <t>줄거리</t>
+  </si>
+  <si>
+    <t>예고편</t>
+  </si>
+  <si>
+    <t>개봉일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스터</t>
+  </si>
+  <si>
+    <t>지역_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영중여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객종류_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시비밀번호</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>생년월일</t>
+  </si>
+  <si>
+    <t>본인인증여부</t>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+  </si>
+  <si>
+    <t>이메일</t>
+  </si>
+  <si>
+    <t>누적포인트</t>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매정보_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제정보_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 영명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK/FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFULT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,13 +698,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,8 +736,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,17 +1063,2974 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075A9511-BEF8-4173-A740-2C0D9D924BAD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="3" max="5" width="10.58203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="str">
+        <f>RIGHT(B2,2)</f>
+        <v>문자</v>
+      </c>
+      <c r="D2" t="str">
+        <f>RIGHT(B2,3)</f>
+        <v>별문자</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>RIGHT(B2,4)</f>
+        <v>식별문자</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" ref="C3:C66" si="0">RIGHT(B3,2)</f>
+        <v>이름</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">RIGHT(B3,3)</f>
+        <v>역이름</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="2">RIGHT(B3,4)</f>
+        <v>지역이름</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이름</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>관이름</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>화관이름</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>방식</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>영방식</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>상영방식</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>금액</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>영금액</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>상영금액</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>제목</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>화제목</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>영화제목</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>봉일</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>개봉일</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>화개봉일</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>감독</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>화감독</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>영화감독</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>등급</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>청등급</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>시청등급</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>시간</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>영시간</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>상영시간</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>장르</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>화장르</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>영화장르</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>거리</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>줄거리</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>화줄거리</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>고편</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>예고편</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>화예고편</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>스터</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>포스터</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>화포스터</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>작일</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>시작일</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>료일</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>종료일</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>여부</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>영여부</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>상영여부</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>순위</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>매순위</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>예매순위</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>매율</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>예매율</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>화예매율</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>이름</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>우이름</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>배우이름</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>석수</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>좌석수</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>관좌석수</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>여부</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>중여부</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>영중여부</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>시각</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>영시각</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>상영시각</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>석문자</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>좌석문자</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>종류</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>객종류</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>관객종류</v>
+      </c>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>인율</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>할인율</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>류할인율</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>객수</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>관객수</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>보관객수</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>시각</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>매시각</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>예매시각</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>석문자</v>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>좌석문자</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>문자</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>별문자</v>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>이디</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>아이디</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>별아이디</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>코드</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>분코드</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>구분코드</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>이디</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>아이디</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v>시아이디</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>번호</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>밀번호</v>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>비밀번호</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="3" t="str">
+        <f t="shared" ref="C67:C118" si="3">RIGHT(B67,2)</f>
+        <v>이름</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D118" si="4">RIGHT(B67,3)</f>
+        <v>원이름</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E118" si="5">RIGHT(B67,4)</f>
+        <v>회원이름</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>번호</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="4"/>
+        <v>화번호</v>
+      </c>
+      <c r="E68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>전화번호</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>월일</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="4"/>
+        <v>년월일</v>
+      </c>
+      <c r="E69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>생년월일</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>여부</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="4"/>
+        <v>증여부</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="5"/>
+        <v>인증여부</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="5"/>
+        <v>원아이디</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>번호</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="4"/>
+        <v>밀번호</v>
+      </c>
+      <c r="E73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>비밀번호</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>이름</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="4"/>
+        <v>원이름</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="5"/>
+        <v>회원이름</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>메일</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>이메일</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="5"/>
+        <v>원이메일</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>번호</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="4"/>
+        <v>화번호</v>
+      </c>
+      <c r="E76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>전화번호</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>월일</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="4"/>
+        <v>년월일</v>
+      </c>
+      <c r="E77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>생년월일</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>여부</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="4"/>
+        <v>증여부</v>
+      </c>
+      <c r="E78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>인증여부</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>인트</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>포인트</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="5"/>
+        <v>적포인트</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="5"/>
+        <v>원아이디</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>장르</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="4"/>
+        <v>호장르</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="5"/>
+        <v>선호장르</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D84" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="5"/>
+        <v>별아이디</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>이름</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="4"/>
+        <v>증이름</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="5"/>
+        <v>인증이름</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>번호</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="4"/>
+        <v>화번호</v>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>전화번호</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>월일</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="4"/>
+        <v>년월일</v>
+      </c>
+      <c r="E87" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>생년월일</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="5"/>
+        <v>자아이디</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>번호</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="4"/>
+        <v>밀번호</v>
+      </c>
+      <c r="E90" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>비밀번호</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>이름</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="4"/>
+        <v>자이름</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="5"/>
+        <v>리자이름</v>
+      </c>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>방법</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="4"/>
+        <v>제방법</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="5"/>
+        <v>결제방법</v>
+      </c>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>금액</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="4"/>
+        <v>제금액</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="5"/>
+        <v>결제금액</v>
+      </c>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E98" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E99" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E101" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D102" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="5"/>
+        <v>별아이디</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>시각</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="4"/>
+        <v>제시각</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="5"/>
+        <v>결제시각</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>여부</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="4"/>
+        <v>효여부</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="5"/>
+        <v>유효여부</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C105" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D106" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="5"/>
+        <v>별아이디</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E107" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E108" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>여부</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="4"/>
+        <v>능여부</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="5"/>
+        <v>가능여부</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C110" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E111" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="3"/>
+        <v>이디</v>
+      </c>
+      <c r="D112" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>아이디</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="5"/>
+        <v>_아이디</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E113" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>방식</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="4"/>
+        <v>용방식</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="5"/>
+        <v>활용방식</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="3"/>
+        <v>인트</v>
+      </c>
+      <c r="D115" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>포인트</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="5"/>
+        <v>용포인트</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C116" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="3"/>
+        <v>문자</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="4"/>
+        <v>별문자</v>
+      </c>
+      <c r="E117" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>시각</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="4"/>
+        <v>용시각</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="5"/>
+        <v>활용시각</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC3FF3-2498-43FB-A9BA-0354117F8A74}">
+  <dimension ref="A1:J118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="30.58203125" customWidth="1"/>
+    <col min="3" max="5" width="20.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B114" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B115" t="s">
+        <v>109</v>
+      </c>
+      <c r="C115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B118" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/중간발표/도메인정의서.xlsx
+++ b/중간발표/도메인정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5917ED-9C67-40CD-9BAC-7A56E6003E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4D6E3E-A809-4C45-A5E5-701262E646A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{A2AAF442-88E4-4D8B-84AD-B156409A91C1}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10500" activeTab="1" xr2:uid="{A2AAF442-88E4-4D8B-84AD-B156409A91C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075A9511-BEF8-4173-A740-2C0D9D924BAD}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3165,8 +3165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC3FF3-2498-43FB-A9BA-0354117F8A74}">
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/중간발표/도메인정의서.xlsx
+++ b/중간발표/도메인정의서.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16372E59-EB10-4C99-A640-19712A08AADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B0E31-8BF9-4614-A72F-BE5D72600616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{A2AAF442-88E4-4D8B-84AD-B156409A91C1}"/>
-    <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15990" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="417">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,10 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK/FK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,278 +514,1402 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>상영일정상영일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매관객수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_예매식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식_관객방식식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제_결제식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보_식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트활용방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트활용포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_아이디</t>
+  </si>
+  <si>
+    <t>회원정보_아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트_포인트식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉일</t>
+  </si>
+  <si>
+    <t>감독</t>
+  </si>
+  <si>
+    <t>시청등급</t>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자</t>
+  </si>
+  <si>
+    <t>영화_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화상영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선호장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석_좌석문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에매_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용방식</t>
+  </si>
+  <si>
+    <t>활용포인트</t>
+  </si>
+  <si>
+    <t>결제_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도메인 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동의어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화개봉일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원생년월일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정상영일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용시각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화상영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원본인인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원본인인증여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영중여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청가능여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원임시비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원임시아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_회원아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보_사용자식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정보_사용자식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자구분코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(7)</t>
+  </si>
+  <si>
+    <t>CHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LOCAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CINEMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCRWAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THEATER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXXXXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX) J13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GOERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOOKING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAYWAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PAY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POINT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXXX</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감독(이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 : min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYYMMDD형식의 텍스트</t>
+  </si>
+  <si>
+    <t>YYYYMMDDHHmm형식의 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYYMMDDHHmmss형식의 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BINARY_FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : OFF / 1 : ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : NO / 1 : YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-' 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-' 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 비회원 / 1 : 회원 / 2 : 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:신용카드/1:무통장입금/2:인터넷결제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 소모(-) / 1 : 적립(+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000/ 20000/ 30000원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000만원 이하 결제금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVRELEASEDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVDIRECTOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVCLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVRUNTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVGENRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVSTORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVPREVIEW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVPOST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSEDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISMOVIE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVBOOKRANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVBOOKRATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTORNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERPHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERBIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USERCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMPWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMPHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONMEMBIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISVERIFICATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMPWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMEMAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMPHONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBIRTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTALPOINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAVORGENRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNGID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNGPWD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNGNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCALNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMANO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINEMANAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THEATERNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRWAYNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCRPRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>좌석수</t>
-  </si>
-  <si>
-    <t>상영일정상영일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객방식식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객방식할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매관객수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매_예매식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객방식_관객방식식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제_결제식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자정보_식별아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트활용방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트활용포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보_아이디</t>
-  </si>
-  <si>
-    <t>회원정보_아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트_포인트식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개봉일</t>
-  </si>
-  <si>
-    <t>감독</t>
-  </si>
-  <si>
-    <t>시청등급</t>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화_식별문자</t>
-  </si>
-  <si>
-    <t>영화_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영화상영여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식별아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보_아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선호장르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여부</t>
-  </si>
-  <si>
-    <t>영화관_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영방식_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영관_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상영일정_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매시각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예매_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌석_좌석문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관객방식_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에매_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제방식_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활용방식</t>
-  </si>
-  <si>
-    <t>활용포인트</t>
-  </si>
-  <si>
-    <t>결제_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트_식별문자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도메인 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEATCNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISSCREEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEATNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISEMPTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKINGNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOERSCNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKINGDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISCLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYWAYNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYWAYCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARDNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BANKNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNTNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARDNUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QRCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISVALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTWAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTTMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PONITNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINTDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BINARY_FLOAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(4,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(2,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wiki.gurubee.net/pages/viewpage.action?pageId=1966775</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.313.co.kr/confluence/pages/viewpage.action?pageId=6389778</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thebook.io/006882/ch02/16/05/</t>
+  </si>
+  <si>
+    <t>NULL : 영화상영종료 / 0 : 아무도 영화시청 X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +1917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,6 +1939,31 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -847,12 +1991,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,9 +2012,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,11 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075A9511-BEF8-4173-A740-2C0D9D924BAD}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="1">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1193,6 +2356,7 @@
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="30.58203125" customWidth="1"/>
     <col min="3" max="5" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -1233,8 +2397,14 @@
         <v>별문자</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E15" si="2">RIGHT(B2,4)</f>
+        <f t="shared" ref="E2:E13" si="2">RIGHT(B2,4)</f>
         <v>식별문자</v>
+      </c>
+      <c r="G2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -1253,6 +2423,9 @@
         <f t="shared" si="2"/>
         <v>영화제목</v>
       </c>
+      <c r="H3" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
@@ -1270,12 +2443,15 @@
         <f t="shared" si="2"/>
         <v>화개봉일</v>
       </c>
+      <c r="H4" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>감독</v>
       </c>
@@ -1300,7 +2476,7 @@
         <f t="shared" si="1"/>
         <v>청등급</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="2"/>
         <v>시청등급</v>
       </c>
@@ -1326,7 +2502,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>장르</v>
       </c>
@@ -1347,7 +2523,7 @@
         <f t="shared" si="0"/>
         <v>거리</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v>줄거리</v>
       </c>
@@ -1364,7 +2540,7 @@
         <f t="shared" si="0"/>
         <v>고편</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v>예고편</v>
       </c>
@@ -1381,7 +2557,7 @@
         <f t="shared" si="0"/>
         <v>스터</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v>포스터</v>
       </c>
@@ -1426,7 +2602,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -1436,14 +2612,14 @@
         <f t="shared" si="1"/>
         <v>시작일</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="E14" t="str">
+        <f t="shared" ref="E14:E23" si="3">RIGHT(B14,4)</f>
         <v>정시작일</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -1453,8 +2629,8 @@
         <f t="shared" si="1"/>
         <v>종료일</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="2"/>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
         <v>정종료일</v>
       </c>
     </row>
@@ -1471,7 +2647,7 @@
         <v>영여부</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ref="E16:E23" si="3">RIGHT(B16,4)</f>
+        <f t="shared" si="3"/>
         <v>상영여부</v>
       </c>
     </row>
@@ -1521,7 +2697,7 @@
         <f t="shared" si="1"/>
         <v>매순위</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="3"/>
         <v>예매순위</v>
       </c>
@@ -1534,7 +2710,7 @@
         <f t="shared" si="0"/>
         <v>매율</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v>예매율</v>
       </c>
@@ -1596,7 +2772,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -1610,7 +2786,7 @@
         <v>증이름</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E27" si="6">RIGHT(B25,4)</f>
+        <f t="shared" ref="E25:E28" si="6">RIGHT(B25,4)</f>
         <v>인증이름</v>
       </c>
     </row>
@@ -1618,7 +2794,7 @@
       <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="2" t="str">
         <f t="shared" si="4"/>
         <v>번호</v>
       </c>
@@ -1626,7 +2802,7 @@
         <f t="shared" si="5"/>
         <v>화번호</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="6"/>
         <v>전화번호</v>
       </c>
@@ -1650,38 +2826,38 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="7">RIGHT(B28,2)</f>
         <v>이디</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" ref="D28" si="8">RIGHT(B28,3)</f>
+      <c r="D28" s="2" t="str">
+        <f t="shared" ref="D28:D50" si="8">RIGHT(B28,3)</f>
         <v>아이디</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" ref="E28" si="9">RIGHT(B28,4)</f>
+      <c r="E28" t="str">
+        <f t="shared" si="6"/>
         <v>증아이디</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ref="C30:C50" si="10">RIGHT(B30,2)</f>
+        <f t="shared" ref="C30:C50" si="9">RIGHT(B30,2)</f>
         <v>이디</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" ref="D30:D50" si="11">RIGHT(B30,3)</f>
+        <f t="shared" si="8"/>
         <v>아이디</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" ref="E30:E50" si="12">RIGHT(B30,4)</f>
+        <f t="shared" ref="E30:E50" si="10">RIGHT(B30,4)</f>
         <v>별아이디</v>
       </c>
     </row>
@@ -1690,49 +2866,49 @@
         <v>46</v>
       </c>
       <c r="C31" t="str">
+        <f t="shared" si="9"/>
+        <v>코드</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="8"/>
+        <v>분코드</v>
+      </c>
+      <c r="E31" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>코드</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="11"/>
-        <v>분코드</v>
-      </c>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>구분코드</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C32" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E32" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
       <c r="C33" t="str">
+        <f t="shared" si="9"/>
+        <v>이디</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>아이디</v>
+      </c>
+      <c r="E33" t="str">
         <f t="shared" si="10"/>
-        <v>이디</v>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>아이디</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="12"/>
         <v>시아이디</v>
       </c>
     </row>
@@ -1740,16 +2916,16 @@
       <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>번호</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="8"/>
+        <v>밀번호</v>
+      </c>
+      <c r="E34" t="str">
         <f t="shared" si="10"/>
-        <v>번호</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="11"/>
-        <v>밀번호</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>비밀번호</v>
       </c>
     </row>
@@ -1758,15 +2934,15 @@
         <v>49</v>
       </c>
       <c r="C35" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>이름</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="8"/>
+        <v>원이름</v>
+      </c>
+      <c r="E35" t="str">
         <f t="shared" si="10"/>
-        <v>이름</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="11"/>
-        <v>원이름</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="12"/>
         <v>회원이름</v>
       </c>
     </row>
@@ -1774,16 +2950,16 @@
       <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>번호</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="8"/>
+        <v>화번호</v>
+      </c>
+      <c r="E36" t="str">
         <f t="shared" si="10"/>
-        <v>번호</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="11"/>
-        <v>화번호</v>
-      </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>전화번호</v>
       </c>
     </row>
@@ -1792,15 +2968,15 @@
         <v>51</v>
       </c>
       <c r="C37" t="str">
+        <f t="shared" si="9"/>
+        <v>월일</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="8"/>
+        <v>년월일</v>
+      </c>
+      <c r="E37" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>월일</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="11"/>
-        <v>년월일</v>
-      </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>생년월일</v>
       </c>
     </row>
@@ -1809,49 +2985,49 @@
         <v>52</v>
       </c>
       <c r="C38" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>여부</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="8"/>
+        <v>증여부</v>
+      </c>
+      <c r="E38" t="str">
         <f t="shared" si="10"/>
-        <v>여부</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="11"/>
-        <v>증여부</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="12"/>
         <v>인증여부</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C39" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E39" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
       </c>
       <c r="C40" t="str">
+        <f t="shared" si="9"/>
+        <v>이디</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>아이디</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="10"/>
-        <v>이디</v>
-      </c>
-      <c r="D40" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>아이디</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="12"/>
         <v>원아이디</v>
       </c>
     </row>
@@ -1859,16 +3035,16 @@
       <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" t="str">
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>번호</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="8"/>
+        <v>밀번호</v>
+      </c>
+      <c r="E41" t="str">
         <f t="shared" si="10"/>
-        <v>번호</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="11"/>
-        <v>밀번호</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>비밀번호</v>
       </c>
     </row>
@@ -1877,15 +3053,15 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>이름</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="8"/>
+        <v>원이름</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="10"/>
-        <v>이름</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="11"/>
-        <v>원이름</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="12"/>
         <v>회원이름</v>
       </c>
     </row>
@@ -1894,15 +3070,15 @@
         <v>56</v>
       </c>
       <c r="C43" t="str">
+        <f t="shared" si="9"/>
+        <v>메일</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="8"/>
+        <v>이메일</v>
+      </c>
+      <c r="E43" t="str">
         <f t="shared" si="10"/>
-        <v>메일</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>이메일</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="12"/>
         <v>원이메일</v>
       </c>
     </row>
@@ -1910,16 +3086,16 @@
       <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>번호</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="8"/>
+        <v>화번호</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="10"/>
-        <v>번호</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="11"/>
-        <v>화번호</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>전화번호</v>
       </c>
     </row>
@@ -1928,15 +3104,15 @@
         <v>58</v>
       </c>
       <c r="C45" t="str">
+        <f t="shared" si="9"/>
+        <v>월일</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="8"/>
+        <v>년월일</v>
+      </c>
+      <c r="E45" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>월일</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="11"/>
-        <v>년월일</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>생년월일</v>
       </c>
     </row>
@@ -1944,16 +3120,16 @@
       <c r="B46" t="s">
         <v>59</v>
       </c>
-      <c r="C46" t="str">
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>여부</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="8"/>
+        <v>증여부</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="10"/>
-        <v>여부</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="11"/>
-        <v>증여부</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="12"/>
         <v>인증여부</v>
       </c>
     </row>
@@ -1962,29 +3138,29 @@
         <v>60</v>
       </c>
       <c r="C47" t="str">
+        <f t="shared" si="9"/>
+        <v>인트</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="8"/>
+        <v>포인트</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="10"/>
-        <v>인트</v>
-      </c>
-      <c r="D47" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>포인트</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="12"/>
         <v>적포인트</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C48" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -1993,18 +3169,18 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="str">
+        <f t="shared" si="9"/>
+        <v>이디</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>아이디</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="10"/>
-        <v>이디</v>
-      </c>
-      <c r="D49" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>아이디</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="12"/>
         <v>원아이디</v>
       </c>
     </row>
@@ -2012,36 +3188,36 @@
       <c r="B50" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" t="str">
+        <f t="shared" si="9"/>
+        <v>장르</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="8"/>
+        <v>호장르</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="10"/>
-        <v>장르</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="11"/>
-        <v>호장르</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="12"/>
         <v>선호장르</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" ref="C52:C54" si="13">RIGHT(B52,2)</f>
+        <f t="shared" ref="C52:C54" si="11">RIGHT(B52,2)</f>
         <v>이디</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" ref="D52:D54" si="14">RIGHT(B52,3)</f>
+        <f t="shared" ref="D52:D54" si="12">RIGHT(B52,3)</f>
         <v>아이디</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ref="E52:E54" si="15">RIGHT(B52,4)</f>
+        <f t="shared" ref="E52:E54" si="13">RIGHT(B52,4)</f>
         <v>자아이디</v>
       </c>
     </row>
@@ -2049,16 +3225,16 @@
       <c r="B53" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="str">
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>번호</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="12"/>
+        <v>밀번호</v>
+      </c>
+      <c r="E53" t="str">
         <f t="shared" si="13"/>
-        <v>번호</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="14"/>
-        <v>밀번호</v>
-      </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="15"/>
         <v>비밀번호</v>
       </c>
     </row>
@@ -2067,15 +3243,15 @@
         <v>66</v>
       </c>
       <c r="C54" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>이름</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="12"/>
+        <v>자이름</v>
+      </c>
+      <c r="E54" t="str">
         <f t="shared" si="13"/>
-        <v>이름</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="14"/>
-        <v>자이름</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="15"/>
         <v>리자이름</v>
       </c>
     </row>
@@ -2104,29 +3280,29 @@
         <v>15</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f t="shared" ref="C57:C65" si="16">RIGHT(B57,2)</f>
+        <f t="shared" ref="C57:C65" si="14">RIGHT(B57,2)</f>
         <v>이름</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57:D65" si="17">RIGHT(B57,3)</f>
+        <f t="shared" ref="D57:D65" si="15">RIGHT(B57,3)</f>
         <v>역이름</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" ref="E57:E65" si="18">RIGHT(B57,4)</f>
+        <f t="shared" ref="E57:E65" si="16">RIGHT(B57,4)</f>
         <v>지역이름</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C58" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E58" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2138,15 +3314,15 @@
         <v>16</v>
       </c>
       <c r="C59" t="str">
+        <f t="shared" si="14"/>
+        <v>문자</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="15"/>
+        <v>별문자</v>
+      </c>
+      <c r="E59" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>문자</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="17"/>
-        <v>별문자</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="18"/>
         <v>식별문자</v>
       </c>
     </row>
@@ -2155,15 +3331,15 @@
         <v>17</v>
       </c>
       <c r="C60" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>이름</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="15"/>
+        <v>관이름</v>
+      </c>
+      <c r="E60" t="str">
         <f t="shared" si="16"/>
-        <v>이름</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="17"/>
-        <v>관이름</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="18"/>
         <v>화관이름</v>
       </c>
     </row>
@@ -2172,29 +3348,29 @@
         <v>31</v>
       </c>
       <c r="C61" t="str">
+        <f t="shared" si="14"/>
+        <v>문자</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="15"/>
+        <v>별문자</v>
+      </c>
+      <c r="E61" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>문자</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="17"/>
-        <v>별문자</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="18"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C62" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="E62" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2206,15 +3382,15 @@
         <v>18</v>
       </c>
       <c r="C63" t="str">
+        <f t="shared" si="14"/>
+        <v>문자</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="15"/>
+        <v>별문자</v>
+      </c>
+      <c r="E63" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>문자</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="17"/>
-        <v>별문자</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="18"/>
         <v>식별문자</v>
       </c>
     </row>
@@ -2223,15 +3399,15 @@
         <v>4</v>
       </c>
       <c r="C64" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>방식</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="15"/>
+        <v>영방식</v>
+      </c>
+      <c r="E64" t="str">
         <f t="shared" si="16"/>
-        <v>방식</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="17"/>
-        <v>영방식</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="18"/>
         <v>상영방식</v>
       </c>
     </row>
@@ -2240,15 +3416,15 @@
         <v>19</v>
       </c>
       <c r="C65" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>금액</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="15"/>
+        <v>영금액</v>
+      </c>
+      <c r="E65" t="str">
         <f t="shared" si="16"/>
-        <v>금액</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="17"/>
-        <v>영금액</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="18"/>
         <v>상영금액</v>
       </c>
     </row>
@@ -2260,15 +3436,15 @@
         <v>33</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C84" si="19">RIGHT(B67,2)</f>
+        <f t="shared" ref="C67:C84" si="17">RIGHT(B67,2)</f>
         <v>문자</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D84" si="20">RIGHT(B67,3)</f>
+        <f t="shared" ref="D67:D84" si="18">RIGHT(B67,3)</f>
         <v>별문자</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E84" si="21">RIGHT(B67,4)</f>
+        <f t="shared" ref="E67:E84" si="19">RIGHT(B67,4)</f>
         <v>식별문자</v>
       </c>
     </row>
@@ -2277,15 +3453,15 @@
         <v>38</v>
       </c>
       <c r="C68" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E68" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E68" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
@@ -2294,15 +3470,15 @@
         <v>34</v>
       </c>
       <c r="C69" t="str">
+        <f t="shared" si="17"/>
+        <v>석수</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="18"/>
+        <v>좌석수</v>
+      </c>
+      <c r="E69" t="str">
         <f t="shared" si="19"/>
-        <v>석수</v>
-      </c>
-      <c r="D69" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>좌석수</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="21"/>
         <v>관좌석수</v>
       </c>
     </row>
@@ -2311,15 +3487,15 @@
         <v>84</v>
       </c>
       <c r="C70" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>여부</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="18"/>
+        <v>중여부</v>
+      </c>
+      <c r="E70" t="str">
         <f t="shared" si="19"/>
-        <v>여부</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="20"/>
-        <v>중여부</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="21"/>
         <v>영중여부</v>
       </c>
     </row>
@@ -2328,15 +3504,15 @@
         <v>37</v>
       </c>
       <c r="C71" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E71" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E71" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
@@ -2345,29 +3521,29 @@
         <v>32</v>
       </c>
       <c r="C72" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E72" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E72" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C73" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E73" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -2379,32 +3555,32 @@
         <v>39</v>
       </c>
       <c r="C74" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E74" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E74" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>일자</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="18"/>
+        <v>영일자</v>
+      </c>
+      <c r="E75" t="str">
         <f t="shared" si="19"/>
-        <v>일자</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="20"/>
-        <v>영일자</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="21"/>
         <v>상영일자</v>
       </c>
     </row>
@@ -2413,29 +3589,29 @@
         <v>41</v>
       </c>
       <c r="C76" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E76" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C77" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E77" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -2447,32 +3623,32 @@
         <v>42</v>
       </c>
       <c r="C78" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="18"/>
+        <v>석문자</v>
+      </c>
+      <c r="E78" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="20"/>
-        <v>석문자</v>
-      </c>
-      <c r="E78" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>좌석문자</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C79" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>여부</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="18"/>
+        <v>석여부</v>
+      </c>
+      <c r="E79" t="str">
         <f t="shared" si="19"/>
-        <v>여부</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="20"/>
-        <v>석여부</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="21"/>
         <v>좌석여부</v>
       </c>
     </row>
@@ -2481,120 +3657,120 @@
         <v>43</v>
       </c>
       <c r="C80" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E80" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E80" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C81" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E81" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C82" t="str">
+        <f t="shared" si="17"/>
+        <v>문자</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="18"/>
+        <v>별문자</v>
+      </c>
+      <c r="E82" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>문자</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="20"/>
-        <v>별문자</v>
-      </c>
-      <c r="E82" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" t="str">
+        <v>108</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>방식</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="18"/>
+        <v>객방식</v>
+      </c>
+      <c r="E83" t="str">
         <f t="shared" si="19"/>
-        <v>방식</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="20"/>
-        <v>객방식</v>
-      </c>
-      <c r="E83" s="2" t="str">
-        <f t="shared" si="21"/>
         <v>관객방식</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C84" t="str">
+        <f t="shared" si="17"/>
+        <v>인율</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="18"/>
+        <v>할인율</v>
+      </c>
+      <c r="E84" t="str">
         <f t="shared" si="19"/>
-        <v>인율</v>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>할인율</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="21"/>
         <v>식할인율</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" ref="C86:C92" si="22">RIGHT(B86,2)</f>
+        <f t="shared" ref="C86:C92" si="20">RIGHT(B86,2)</f>
         <v>문자</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" ref="D86:D92" si="23">RIGHT(B86,3)</f>
+        <f t="shared" ref="D86:D92" si="21">RIGHT(B86,3)</f>
         <v>별문자</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" ref="E86:E92" si="24">RIGHT(B86,4)</f>
+        <f t="shared" ref="E86:E92" si="22">RIGHT(B86,4)</f>
         <v>식별문자</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C87" t="str">
+        <f t="shared" si="20"/>
+        <v>객수</v>
+      </c>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>관객수</v>
+      </c>
+      <c r="E87" t="str">
         <f t="shared" si="22"/>
-        <v>객수</v>
-      </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>관객수</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="24"/>
         <v>매관객수</v>
       </c>
     </row>
@@ -2603,29 +3779,29 @@
         <v>85</v>
       </c>
       <c r="C88" s="2" t="str">
+        <f t="shared" si="20"/>
+        <v>시각</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="21"/>
+        <v>매시각</v>
+      </c>
+      <c r="E88" t="str">
         <f t="shared" si="22"/>
-        <v>시각</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="23"/>
-        <v>매시각</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="24"/>
         <v>예매시각</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C89" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E89" t="str">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -2634,18 +3810,18 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" t="str">
+        <f t="shared" si="20"/>
+        <v>문자</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="21"/>
+        <v>별문자</v>
+      </c>
+      <c r="E90" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>문자</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="23"/>
-        <v>별문자</v>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="24"/>
         <v>식별문자</v>
       </c>
     </row>
@@ -2654,52 +3830,52 @@
         <v>44</v>
       </c>
       <c r="C91" t="str">
+        <f t="shared" si="20"/>
+        <v>문자</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="21"/>
+        <v>석문자</v>
+      </c>
+      <c r="E91" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>문자</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="23"/>
-        <v>석문자</v>
-      </c>
-      <c r="E91" s="2" t="str">
-        <f t="shared" si="24"/>
         <v>좌석문자</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" t="str">
+        <f t="shared" si="20"/>
+        <v>문자</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="21"/>
+        <v>별문자</v>
+      </c>
+      <c r="E92" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>문자</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" si="23"/>
-        <v>별문자</v>
-      </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="24"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" ref="C94:C97" si="25">RIGHT(B94,2)</f>
+        <f t="shared" ref="C94:C97" si="23">RIGHT(B94,2)</f>
         <v>이디</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" ref="D94:D97" si="26">RIGHT(B94,3)</f>
+        <f t="shared" ref="D94:D97" si="24">RIGHT(B94,3)</f>
         <v>아이디</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" ref="E94:E97" si="27">RIGHT(B94,4)</f>
+        <f t="shared" ref="E94:E97" si="25">RIGHT(B94,4)</f>
         <v>별아이디</v>
       </c>
     </row>
@@ -2708,15 +3884,15 @@
         <v>72</v>
       </c>
       <c r="C95" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v>여부</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="24"/>
+        <v>능여부</v>
+      </c>
+      <c r="E95" t="str">
         <f t="shared" si="25"/>
-        <v>여부</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="26"/>
-        <v>능여부</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="27"/>
         <v>가능여부</v>
       </c>
     </row>
@@ -2725,69 +3901,69 @@
         <v>32</v>
       </c>
       <c r="C96" t="str">
+        <f t="shared" si="23"/>
+        <v>문자</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="24"/>
+        <v>별문자</v>
+      </c>
+      <c r="E96" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>문자</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" si="26"/>
-        <v>별문자</v>
-      </c>
-      <c r="E96" s="2" t="str">
-        <f t="shared" si="27"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C97" t="str">
+        <f t="shared" si="23"/>
+        <v>문자</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="24"/>
+        <v>별문자</v>
+      </c>
+      <c r="E97" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>문자</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="26"/>
-        <v>별문자</v>
-      </c>
-      <c r="E97" s="2" t="str">
-        <f t="shared" si="27"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" ref="C99:C100" si="28">RIGHT(B99,2)</f>
+        <f t="shared" ref="C99:C100" si="26">RIGHT(B99,2)</f>
         <v>문자</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" ref="D99:D111" si="29">RIGHT(B99,3)</f>
+        <f t="shared" ref="D99:D111" si="27">RIGHT(B99,3)</f>
         <v>별문자</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" ref="E99:E111" si="30">RIGHT(B99,4)</f>
+        <f t="shared" ref="E99:E111" si="28">RIGHT(B99,4)</f>
         <v>식별문자</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B100" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C100" t="str">
+        <f t="shared" si="26"/>
+        <v>코드</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="27"/>
+        <v>분코드</v>
+      </c>
+      <c r="E100" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>코드</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="29"/>
-        <v>분코드</v>
-      </c>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="30"/>
         <v>구분코드</v>
       </c>
     </row>
@@ -2797,210 +3973,210 @@
         <v/>
       </c>
       <c r="D101" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" ref="C102:C112" si="29">RIGHT(B102,2)</f>
+        <v>문자</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="27"/>
+        <v>별문자</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="29"/>
+        <v>드사</v>
+      </c>
+      <c r="D103" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>카드사</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="28"/>
+        <v>카드사</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>번호</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="27"/>
+        <v>드번호</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="28"/>
+        <v>카드번호</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C105" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="30"/>
+      <c r="D105" t="str">
+        <f t="shared" si="27"/>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+      <c r="E105" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" t="str">
-        <f t="shared" ref="C102:C112" si="31">RIGHT(B102,2)</f>
+      <c r="C106" t="str">
+        <f t="shared" si="29"/>
         <v>문자</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D106" t="str">
+        <f t="shared" si="27"/>
+        <v>별문자</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" t="str">
         <f t="shared" si="29"/>
-        <v>별문자</v>
-      </c>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>식별문자</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B103" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="31"/>
-        <v>드사</v>
-      </c>
-      <c r="D103" s="2" t="str">
+        <v>행사</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>은행사</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="28"/>
+        <v>은행사</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>카드사</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="30"/>
-        <v>카드사</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="2" t="str">
-        <f t="shared" si="31"/>
         <v>번호</v>
       </c>
-      <c r="D104" t="str">
-        <f t="shared" si="29"/>
-        <v>드번호</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="30"/>
-        <v>카드번호</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C105" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="D105" t="str">
+      <c r="D108" t="str">
+        <f t="shared" si="27"/>
+        <v>좌번호</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="28"/>
+        <v>계좌번호</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C109" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="30"/>
+      <c r="D109" t="str">
+        <f t="shared" si="27"/>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" t="str">
-        <f t="shared" si="31"/>
+      <c r="E109" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="29"/>
         <v>문자</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D110" t="str">
+        <f t="shared" si="27"/>
+        <v>별문자</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="28"/>
+        <v>식별문자</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="str">
         <f t="shared" si="29"/>
-        <v>별문자</v>
-      </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>식별문자</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B107" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" t="str">
-        <f t="shared" si="31"/>
-        <v>행사</v>
-      </c>
-      <c r="D107" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>은행사</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="30"/>
-        <v>은행사</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>번호</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="29"/>
-        <v>좌번호</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="30"/>
-        <v>계좌번호</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C109" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="D109" t="str">
+        <v>코드</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="27"/>
+        <v>R코드</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="28"/>
+        <v>QR코드</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C112" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="E109" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" t="str">
-        <f t="shared" si="31"/>
-        <v>문자</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" si="29"/>
-        <v>별문자</v>
-      </c>
-      <c r="E110" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>식별문자</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" t="str">
-        <f t="shared" si="31"/>
-        <v>코드</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="29"/>
-        <v>R코드</v>
-      </c>
-      <c r="E111" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>QR코드</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C112" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" ref="C113:C124" si="32">RIGHT(B113,2)</f>
+        <f t="shared" ref="C113:C121" si="30">RIGHT(B113,2)</f>
         <v>문자</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" ref="D113:D124" si="33">RIGHT(B113,3)</f>
+        <f t="shared" ref="D113:D121" si="31">RIGHT(B113,3)</f>
         <v>별문자</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f t="shared" ref="E113:E124" si="34">RIGHT(B113,4)</f>
+        <f t="shared" ref="E113:E121" si="32">RIGHT(B113,4)</f>
         <v>식별문자</v>
       </c>
     </row>
@@ -3009,100 +4185,100 @@
         <v>68</v>
       </c>
       <c r="C114" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>금액</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="31"/>
+        <v>제금액</v>
+      </c>
+      <c r="E114" t="str">
         <f t="shared" si="32"/>
-        <v>금액</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" si="33"/>
-        <v>제금액</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="34"/>
         <v>결제금액</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C115" t="str">
+        <f t="shared" si="30"/>
+        <v>문자</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="31"/>
+        <v>별문자</v>
+      </c>
+      <c r="E115" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>문자</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" si="33"/>
-        <v>별문자</v>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="34"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" t="str">
+        <f t="shared" si="30"/>
+        <v>문자</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="31"/>
+        <v>별문자</v>
+      </c>
+      <c r="E116" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>문자</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="33"/>
-        <v>별문자</v>
-      </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="34"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C117" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="E117" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="D117" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C118" t="str">
+        <f t="shared" si="30"/>
+        <v>문자</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="31"/>
+        <v>별문자</v>
+      </c>
+      <c r="E118" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>문자</v>
-      </c>
-      <c r="D118" t="str">
-        <f t="shared" si="33"/>
-        <v>별문자</v>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="34"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="C119" t="str">
+        <f t="shared" si="30"/>
+        <v>이디</v>
+      </c>
+      <c r="D119" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>아이디</v>
+      </c>
+      <c r="E119" t="str">
         <f t="shared" si="32"/>
-        <v>이디</v>
-      </c>
-      <c r="D119" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>아이디</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="34"/>
         <v>별아이디</v>
       </c>
     </row>
@@ -3111,15 +4287,15 @@
         <v>70</v>
       </c>
       <c r="C120" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>시각</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="31"/>
+        <v>제시각</v>
+      </c>
+      <c r="E120" t="str">
         <f t="shared" si="32"/>
-        <v>시각</v>
-      </c>
-      <c r="D120" t="str">
-        <f t="shared" si="33"/>
-        <v>제시각</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="34"/>
         <v>결제시각</v>
       </c>
     </row>
@@ -3128,154 +4304,154 @@
         <v>71</v>
       </c>
       <c r="C121" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>여부</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="31"/>
+        <v>효여부</v>
+      </c>
+      <c r="E121" t="str">
         <f t="shared" si="32"/>
-        <v>여부</v>
-      </c>
-      <c r="D121" t="str">
-        <f t="shared" si="33"/>
-        <v>효여부</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="34"/>
         <v>유효여부</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" ref="C123:C131" si="35">RIGHT(B123,2)</f>
+        <f t="shared" ref="C123:C131" si="33">RIGHT(B123,2)</f>
         <v>문자</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" ref="C123:E131" si="36">RIGHT(B123,3)</f>
+        <f t="shared" ref="D123:D131" si="34">RIGHT(B123,3)</f>
         <v>별문자</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" ref="E123:E131" si="37">RIGHT(B123,4)</f>
+        <f t="shared" ref="E123:E131" si="35">RIGHT(B123,4)</f>
         <v>식별문자</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C124" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>방식</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="34"/>
+        <v>용방식</v>
+      </c>
+      <c r="E124" t="str">
         <f t="shared" si="35"/>
-        <v>방식</v>
-      </c>
-      <c r="D124" t="str">
-        <f t="shared" si="36"/>
-        <v>용방식</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="37"/>
         <v>활용방식</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C125" t="str">
+        <f t="shared" si="33"/>
+        <v>인트</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="34"/>
+        <v>포인트</v>
+      </c>
+      <c r="E125" t="str">
         <f t="shared" si="35"/>
-        <v>인트</v>
-      </c>
-      <c r="D125" s="2" t="str">
-        <f t="shared" si="36"/>
-        <v>포인트</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="37"/>
         <v>용포인트</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C126" t="str">
+        <f t="shared" si="33"/>
+        <v>이디</v>
+      </c>
+      <c r="D126" s="2" t="str">
+        <f t="shared" si="34"/>
+        <v>아이디</v>
+      </c>
+      <c r="E126" t="str">
         <f t="shared" si="35"/>
-        <v>이디</v>
-      </c>
-      <c r="D126" s="2" t="str">
-        <f t="shared" si="36"/>
-        <v>아이디</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="37"/>
-        <v>_아이디</v>
+        <v>원아이디</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C127" t="str">
+        <f t="shared" si="33"/>
+        <v>문자</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="34"/>
+        <v>별문자</v>
+      </c>
+      <c r="E127" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>문자</v>
-      </c>
-      <c r="D127" t="str">
-        <f t="shared" si="36"/>
-        <v>별문자</v>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="37"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C128" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="E128" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="D128" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C129" t="str">
+        <f t="shared" si="33"/>
+        <v>문자</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="34"/>
+        <v>별문자</v>
+      </c>
+      <c r="E129" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>문자</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="36"/>
-        <v>별문자</v>
-      </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="37"/>
         <v>식별문자</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C130" t="str">
+        <f t="shared" si="33"/>
+        <v>이디</v>
+      </c>
+      <c r="D130" s="2" t="str">
+        <f t="shared" si="34"/>
+        <v>아이디</v>
+      </c>
+      <c r="E130" t="str">
         <f t="shared" si="35"/>
-        <v>이디</v>
-      </c>
-      <c r="D130" s="2" t="str">
-        <f t="shared" si="36"/>
-        <v>아이디</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="37"/>
         <v>_아이디</v>
       </c>
     </row>
@@ -3284,16 +4460,890 @@
         <v>73</v>
       </c>
       <c r="C131" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>시각</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="34"/>
+        <v>용시각</v>
+      </c>
+      <c r="E131" t="str">
         <f t="shared" si="35"/>
-        <v>시각</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" si="36"/>
-        <v>용시각</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" si="37"/>
         <v>활용시각</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{458F0D32-87D3-4DDA-8718-366D19918C58}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8409ED5-2FF4-4103-9B83-5B74499694A6}">
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="25.58203125" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" customWidth="1"/>
+    <col min="5" max="5" width="30.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>279</v>
+      </c>
+      <c r="E40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>229</v>
+      </c>
+      <c r="B58" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" t="s">
+        <v>287</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" t="s">
+        <v>287</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>233</v>
+      </c>
+      <c r="D62" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" t="s">
+        <v>289</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>244</v>
+      </c>
+      <c r="D73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" t="s">
+        <v>248</v>
+      </c>
+      <c r="D75" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+      <c r="E76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
+        <v>108</v>
+      </c>
+      <c r="D79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>298</v>
+      </c>
+      <c r="E82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>299</v>
+      </c>
+      <c r="E83" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" t="s">
+        <v>300</v>
+      </c>
+      <c r="E86" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3303,216 +5353,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8409ED5-2FF4-4103-9B83-5B74499694A6}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="4" width="20.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC3FF3-2498-43FB-A9BA-0354117F8A74}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.58203125" customWidth="1"/>
     <col min="2" max="2" width="30.58203125" customWidth="1"/>
     <col min="3" max="5" width="20.58203125" customWidth="1"/>
+    <col min="6" max="9" width="10.58203125" customWidth="1"/>
+    <col min="10" max="10" width="50.58203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -3523,40 +5410,94 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
@@ -3565,6 +5506,16 @@
       <c r="C7" t="s">
         <v>79</v>
       </c>
+      <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
@@ -3573,6 +5524,16 @@
       <c r="C8" t="s">
         <v>80</v>
       </c>
+      <c r="D8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
@@ -3581,6 +5542,18 @@
       <c r="C9" t="s">
         <v>81</v>
       </c>
+      <c r="D9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
@@ -3589,6 +5562,18 @@
       <c r="C10" t="s">
         <v>82</v>
       </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
@@ -3597,6 +5582,24 @@
       <c r="C11" t="s">
         <v>83</v>
       </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -3606,34 +5609,86 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+      <c r="D16" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -3641,26 +5696,73 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3668,236 +5770,574 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="D22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="D28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30" t="s">
+        <v>385</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+      <c r="D31" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" t="s">
+        <v>385</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>48</v>
       </c>
       <c r="C34" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>327</v>
+      </c>
+      <c r="E34" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>328</v>
+      </c>
+      <c r="E35" t="s">
+        <v>388</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
         <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>329</v>
+      </c>
+      <c r="E36" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>330</v>
+      </c>
+      <c r="E37" t="s">
+        <v>384</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>52</v>
       </c>
       <c r="C38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>331</v>
+      </c>
+      <c r="E38" t="s">
+        <v>391</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="D40" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" t="s">
+        <v>385</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>54</v>
       </c>
       <c r="C41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>385</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" t="s">
+        <v>388</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" t="s">
+        <v>383</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" t="s">
+        <v>393</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>337</v>
+      </c>
+      <c r="E45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>59</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" t="s">
+        <v>391</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>338</v>
+      </c>
+      <c r="E47" t="s">
+        <v>395</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+      <c r="D49" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" t="s">
+        <v>385</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" t="s">
+        <v>388</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s">
+        <v>340</v>
+      </c>
+      <c r="E52" t="s">
+        <v>385</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B53" t="s">
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>341</v>
+      </c>
+      <c r="E53" t="s">
+        <v>385</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D54" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" t="s">
+        <v>388</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3905,18 +6345,48 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E56" t="s">
+        <v>381</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>344</v>
+      </c>
+      <c r="E57" t="s">
+        <v>388</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I57" s="7"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3924,26 +6394,68 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" t="s">
+        <v>381</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D60" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" t="s">
+        <v>388</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+      <c r="D61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E61" t="s">
+        <v>381</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3951,26 +6463,70 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D63" t="s">
+        <v>348</v>
+      </c>
+      <c r="E63" t="s">
+        <v>396</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+      <c r="D64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64" t="s">
+        <v>397</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+      <c r="D65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E65" t="s">
+        <v>398</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3978,50 +6534,126 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D67" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" t="s">
+        <v>399</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+      <c r="D68" t="s">
+        <v>352</v>
+      </c>
+      <c r="E68" t="s">
+        <v>387</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B69" t="s">
         <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>353</v>
+      </c>
+      <c r="E69" t="s">
+        <v>391</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B70" t="s">
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+      <c r="D70" t="s">
+        <v>345</v>
+      </c>
+      <c r="E70" t="s">
+        <v>381</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" t="s">
+        <v>396</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+      <c r="D72" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" t="s">
+        <v>381</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -4029,26 +6661,66 @@
         <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>354</v>
+      </c>
+      <c r="E74" t="s">
+        <v>400</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
+        <v>355</v>
+      </c>
+      <c r="E75" t="s">
+        <v>384</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+      <c r="D76" t="s">
+        <v>347</v>
+      </c>
+      <c r="E76" t="s">
+        <v>399</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -4056,375 +6728,932 @@
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>401</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+      <c r="D79" t="s">
+        <v>357</v>
+      </c>
+      <c r="E79" t="s">
+        <v>391</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B80" t="s">
         <v>43</v>
       </c>
       <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" t="s">
+        <v>354</v>
+      </c>
+      <c r="E80" t="s">
+        <v>400</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" t="s">
+        <v>381</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" t="s">
+        <v>177</v>
+      </c>
+      <c r="D83" t="s">
+        <v>359</v>
+      </c>
+      <c r="E83" t="s">
+        <v>402</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" t="s">
+        <v>360</v>
+      </c>
+      <c r="E84" t="s">
+        <v>403</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>361</v>
+      </c>
+      <c r="E86" t="s">
+        <v>404</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D87" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" t="s">
+        <v>386</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+      <c r="D88" t="s">
+        <v>363</v>
+      </c>
+      <c r="E88" t="s">
+        <v>405</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
+        <v>361</v>
+      </c>
+      <c r="E90" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+      <c r="D91" t="s">
+        <v>356</v>
+      </c>
+      <c r="E91" t="s">
+        <v>401</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+      <c r="D92" t="s">
+        <v>358</v>
+      </c>
+      <c r="E92" t="s">
+        <v>381</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D94" t="s">
+        <v>324</v>
+      </c>
+      <c r="E94" t="s">
+        <v>385</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>72</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D95" t="s">
+        <v>364</v>
+      </c>
+      <c r="E95" t="s">
+        <v>391</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="D96" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>381</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B97" t="s">
+        <v>131</v>
+      </c>
+      <c r="C97" t="s">
+        <v>184</v>
+      </c>
+      <c r="D97" t="s">
+        <v>361</v>
+      </c>
+      <c r="E97" t="s">
+        <v>404</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
         <v>133</v>
       </c>
-      <c r="C97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D99" t="s">
+        <v>365</v>
+      </c>
+      <c r="E99" t="s">
+        <v>381</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>366</v>
+      </c>
+      <c r="E100" t="s">
+        <v>394</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
         <v>112</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" t="s">
+        <v>365</v>
+      </c>
+      <c r="E102" t="s">
+        <v>381</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" t="s">
+        <v>367</v>
+      </c>
+      <c r="E103" t="s">
+        <v>385</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>370</v>
+      </c>
+      <c r="E104" t="s">
+        <v>406</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I104" s="7"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>185</v>
+      </c>
+      <c r="D106" t="s">
+        <v>365</v>
+      </c>
+      <c r="E106" t="s">
+        <v>381</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B107" t="s">
         <v>135</v>
       </c>
-      <c r="C99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+      <c r="D107" t="s">
+        <v>368</v>
+      </c>
+      <c r="E107" t="s">
+        <v>388</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108" t="s">
+        <v>369</v>
+      </c>
+      <c r="E108" t="s">
+        <v>406</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110" t="s">
+        <v>185</v>
+      </c>
+      <c r="D110" t="s">
+        <v>365</v>
+      </c>
+      <c r="E110" t="s">
+        <v>381</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111" t="s">
+        <v>371</v>
+      </c>
+      <c r="E111" t="s">
+        <v>390</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
         <v>136</v>
       </c>
-      <c r="C100" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B103" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B104" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>117</v>
-      </c>
-      <c r="B106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B107" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B108" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B111" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" t="s">
-        <v>138</v>
-      </c>
       <c r="C113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="D113" t="s">
+        <v>372</v>
+      </c>
+      <c r="E113" t="s">
+        <v>381</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+      <c r="D114" t="s">
+        <v>373</v>
+      </c>
+      <c r="E114" t="s">
+        <v>407</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+      <c r="D115" t="s">
+        <v>361</v>
+      </c>
+      <c r="E115" t="s">
+        <v>404</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+      <c r="D116" t="s">
+        <v>365</v>
+      </c>
+      <c r="E116" t="s">
+        <v>381</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C118" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+      <c r="D118" t="s">
+        <v>372</v>
+      </c>
+      <c r="E118" t="s">
+        <v>381</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+      <c r="D119" t="s">
+        <v>324</v>
+      </c>
+      <c r="E119" t="s">
+        <v>385</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>70</v>
       </c>
       <c r="C120" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D120" t="s">
+        <v>374</v>
+      </c>
+      <c r="E120" t="s">
+        <v>405</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>71</v>
       </c>
       <c r="C121" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D121" t="s">
+        <v>375</v>
+      </c>
+      <c r="E121" t="s">
+        <v>391</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" t="s">
+        <v>376</v>
+      </c>
+      <c r="E123" t="s">
+        <v>399</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B124" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" t="s">
+        <v>188</v>
+      </c>
+      <c r="D124" t="s">
+        <v>377</v>
+      </c>
+      <c r="E124" t="s">
+        <v>391</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>189</v>
+      </c>
+      <c r="D125" t="s">
+        <v>378</v>
+      </c>
+      <c r="E125" t="s">
+        <v>395</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" t="s">
+        <v>332</v>
+      </c>
+      <c r="E126" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" t="s">
+        <v>190</v>
+      </c>
+      <c r="D127" t="s">
+        <v>372</v>
+      </c>
+      <c r="E127" t="s">
+        <v>381</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>141</v>
-      </c>
-      <c r="C123" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B124" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B129" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B125" t="s">
+      <c r="D129" t="s">
+        <v>379</v>
+      </c>
+      <c r="E129" t="s">
+        <v>399</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" t="s">
         <v>143</v>
       </c>
-      <c r="C125" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B126" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" t="s">
-        <v>146</v>
-      </c>
-      <c r="C129" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B130" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D130" t="s">
+        <v>332</v>
+      </c>
+      <c r="E130" t="s">
+        <v>385</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B131" t="s">
         <v>73</v>
       </c>
       <c r="C131" t="s">
         <v>73</v>
       </c>
+      <c r="D131" t="s">
+        <v>380</v>
+      </c>
+      <c r="E131" t="s">
+        <v>405</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/중간발표/도메인정의서.xlsx
+++ b/중간발표/도메인정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B0E31-8BF9-4614-A72F-BE5D72600616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878364B7-4846-4BA2-88FC-2A10D89BEB06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="425">
   <si>
     <t>엔티티명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1910,6 +1910,38 @@
   </si>
   <si>
     <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소년관람불가 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티플렉스 영화관에서 영화상영 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료 후 계산/ 영화상영여부 0 이면 null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제완료 후 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min : 0.4/ max : 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매자가 청소년관람불가 영화 시청가능 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매된 영화상영일자 초과시, 0으로 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2347,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075A9511-BEF8-4173-A740-2C0D9D924BAD}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -4486,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8409ED5-2FF4-4103-9B83-5B74499694A6}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -5357,8 +5389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC3FF3-2498-43FB-A9BA-0354117F8A74}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="C117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5498,6 +5530,9 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
+      <c r="J6" s="9" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
@@ -5516,6 +5551,9 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
+      <c r="J7" s="9" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
@@ -5681,6 +5719,9 @@
       <c r="I16" s="7">
         <v>0</v>
       </c>
+      <c r="J16" s="9" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F17" s="7"/>
@@ -5755,12 +5796,18 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
+      <c r="J20" s="9" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
+      <c r="J21" s="9" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
@@ -6217,7 +6264,9 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="F48" s="7"/>
@@ -6783,13 +6832,13 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -6812,7 +6861,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>108</v>
       </c>
@@ -6834,7 +6883,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B84" t="s">
         <v>128</v>
       </c>
@@ -6853,14 +6902,17 @@
       <c r="I84" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J84" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -6883,7 +6935,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B87" t="s">
         <v>130</v>
       </c>
@@ -6901,7 +6953,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B88" t="s">
         <v>85</v>
       </c>
@@ -6919,13 +6971,13 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>12</v>
       </c>
@@ -6948,7 +7000,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B91" t="s">
         <v>44</v>
       </c>
@@ -6968,7 +7020,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B92" t="s">
         <v>132</v>
       </c>
@@ -6988,13 +7040,13 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>110</v>
       </c>
@@ -7017,7 +7069,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B95" t="s">
         <v>72</v>
       </c>
@@ -7036,8 +7088,11 @@
       <c r="I95" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J95" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B96" t="s">
         <v>32</v>
       </c>
@@ -7311,7 +7366,7 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>120</v>
       </c>
@@ -7334,7 +7389,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B114" t="s">
         <v>68</v>
       </c>
@@ -7352,7 +7407,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B115" t="s">
         <v>131</v>
       </c>
@@ -7372,7 +7427,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B116" t="s">
         <v>113</v>
       </c>
@@ -7392,13 +7447,13 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -7421,7 +7476,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B119" t="s">
         <v>245</v>
       </c>
@@ -7441,7 +7496,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B120" t="s">
         <v>70</v>
       </c>
@@ -7459,7 +7514,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B121" t="s">
         <v>71</v>
       </c>
@@ -7476,16 +7531,19 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
       <c r="I121" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -7508,7 +7566,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B124" t="s">
         <v>140</v>
       </c>
@@ -7526,7 +7584,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B125" t="s">
         <v>141</v>
       </c>
@@ -7544,7 +7602,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B126" t="s">
         <v>124</v>
       </c>
@@ -7564,7 +7622,7 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B127" t="s">
         <v>137</v>
       </c>
@@ -7584,7 +7642,7 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>

--- a/중간발표/도메인정의서.xlsx
+++ b/중간발표/도메인정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\중간발표\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\데베설\git_corp\My-Cinema\중간발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B0E31-8BF9-4614-A72F-BE5D72600616}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A38165-78A6-4370-83E8-00D59CBD3198}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{65210371-AC83-4D32-B456-8C9311C7DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -404,10 +413,6 @@
   </si>
   <si>
     <t>UNIQUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1910,6 +1915,10 @@
   </si>
   <si>
     <t>2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,15 +2360,15 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="5" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="58.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="58.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2390,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2401,13 +2410,13 @@
         <v>식별문자</v>
       </c>
       <c r="G2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -2424,10 +2433,10 @@
         <v>영화제목</v>
       </c>
       <c r="H3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>22</v>
       </c>
@@ -2444,10 +2453,10 @@
         <v>화개봉일</v>
       </c>
       <c r="H4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -2464,7 +2473,7 @@
         <v>영화감독</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>시청등급</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -2498,7 +2507,7 @@
         <v>상영시간</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>영화장르</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>화줄거리</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>화예고편</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -2566,7 +2575,7 @@
         <v>화포스터</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2580,7 +2589,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2600,9 +2609,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -2617,9 +2626,9 @@
         <v>정시작일</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -2634,7 +2643,7 @@
         <v>정종료일</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>상영여부</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2665,7 +2674,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>예매순위</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -2719,7 +2728,7 @@
         <v>화예매율</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2733,7 +2742,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2753,7 +2762,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -2770,9 +2779,9 @@
         <v>배우이름</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
@@ -2790,7 +2799,7 @@
         <v>인증이름</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>63</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>전화번호</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>64</v>
       </c>
@@ -2824,9 +2833,9 @@
         <v>생년월일</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="7">RIGHT(B28,2)</f>
@@ -2841,9 +2850,9 @@
         <v>증아이디</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -2861,7 +2870,7 @@
         <v>별아이디</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>46</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>구분코드</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C32" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -2892,9 +2901,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -2912,7 +2921,7 @@
         <v>시아이디</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -2929,7 +2938,7 @@
         <v>비밀번호</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>회원이름</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>전화번호</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -2980,7 +2989,7 @@
         <v>생년월일</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -2997,7 +3006,7 @@
         <v>인증여부</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C39" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -3011,9 +3020,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
@@ -3031,7 +3040,7 @@
         <v>원아이디</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -3048,7 +3057,7 @@
         <v>비밀번호</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -3065,7 +3074,7 @@
         <v>회원이름</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>56</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>원이메일</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>57</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>전화번호</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>58</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>생년월일</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>59</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>인증여부</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>60</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>적포인트</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C48" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -3164,12 +3173,12 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="9"/>
@@ -3184,7 +3193,7 @@
         <v>원아이디</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>61</v>
       </c>
@@ -3201,9 +3210,9 @@
         <v>선호장르</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
@@ -3221,7 +3230,7 @@
         <v>자아이디</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>67</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>비밀번호</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>66</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>리자이름</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>15</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>지역이름</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C58" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -3306,7 +3315,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3326,7 +3335,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>17</v>
       </c>
@@ -3343,7 +3352,7 @@
         <v>화관이름</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>31</v>
       </c>
@@ -3360,7 +3369,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C62" t="str">
         <f t="shared" si="14"/>
         <v/>
@@ -3374,7 +3383,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3394,7 +3403,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>4</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>상영방식</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>19</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>상영금액</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -3448,7 +3457,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>38</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>34</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>관좌석수</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>84</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>영중여부</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>37</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>32</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C73" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -3547,7 +3556,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3567,9 +3576,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" s="2" t="str">
         <f t="shared" si="17"/>
@@ -3584,7 +3593,7 @@
         <v>상영일자</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>41</v>
       </c>
@@ -3601,7 +3610,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C77" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -3615,7 +3624,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -3635,9 +3644,9 @@
         <v>좌석문자</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" si="17"/>
@@ -3652,7 +3661,7 @@
         <v>좌석여부</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>43</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C81" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -3683,12 +3692,12 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82" t="str">
         <f t="shared" si="17"/>
@@ -3703,9 +3712,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="17"/>
@@ -3720,9 +3729,9 @@
         <v>관객방식</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" t="str">
         <f t="shared" si="17"/>
@@ -3737,12 +3746,12 @@
         <v>식할인율</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" t="str">
         <f t="shared" ref="C86:C92" si="20">RIGHT(B86,2)</f>
@@ -3757,9 +3766,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" t="str">
         <f t="shared" si="20"/>
@@ -3774,7 +3783,7 @@
         <v>매관객수</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>85</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>예매시각</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C89" t="str">
         <f t="shared" si="20"/>
         <v/>
@@ -3805,12 +3814,12 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" t="str">
         <f t="shared" si="20"/>
@@ -3825,7 +3834,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>44</v>
       </c>
@@ -3842,9 +3851,9 @@
         <v>좌석문자</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" t="str">
         <f t="shared" si="20"/>
@@ -3859,12 +3868,12 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C94" t="str">
         <f t="shared" ref="C94:C97" si="23">RIGHT(B94,2)</f>
@@ -3879,7 +3888,7 @@
         <v>별아이디</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>72</v>
       </c>
@@ -3896,7 +3905,7 @@
         <v>가능여부</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>32</v>
       </c>
@@ -3913,9 +3922,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="23"/>
@@ -3930,12 +3939,12 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" t="str">
         <f t="shared" ref="C99:C100" si="26">RIGHT(B99,2)</f>
@@ -3950,9 +3959,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="str">
         <f t="shared" si="26"/>
@@ -3967,7 +3976,7 @@
         <v>구분코드</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C101" t="str">
         <f>RIGHT(B101,2)</f>
         <v/>
@@ -3981,12 +3990,12 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
         <v>112</v>
-      </c>
-      <c r="B102" t="s">
-        <v>113</v>
       </c>
       <c r="C102" t="str">
         <f t="shared" ref="C102:C112" si="29">RIGHT(B102,2)</f>
@@ -4001,9 +4010,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" t="str">
         <f t="shared" si="29"/>
@@ -4018,9 +4027,9 @@
         <v>카드사</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="2" t="str">
         <f t="shared" si="29"/>
@@ -4035,7 +4044,7 @@
         <v>카드번호</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C105" t="str">
         <f t="shared" si="29"/>
         <v/>
@@ -4049,12 +4058,12 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" t="str">
         <f t="shared" si="29"/>
@@ -4069,9 +4078,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" t="str">
         <f t="shared" si="29"/>
@@ -4086,9 +4095,9 @@
         <v>은행사</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="2" t="str">
         <f t="shared" si="29"/>
@@ -4103,7 +4112,7 @@
         <v>계좌번호</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C109" t="str">
         <f t="shared" si="29"/>
         <v/>
@@ -4117,12 +4126,12 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="str">
         <f t="shared" si="29"/>
@@ -4137,9 +4146,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" t="str">
         <f t="shared" si="29"/>
@@ -4154,18 +4163,18 @@
         <v>QR코드</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C112" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113" t="str">
         <f t="shared" ref="C113:C121" si="30">RIGHT(B113,2)</f>
@@ -4180,7 +4189,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>68</v>
       </c>
@@ -4197,9 +4206,9 @@
         <v>결제금액</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" t="str">
         <f t="shared" si="30"/>
@@ -4214,9 +4223,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" t="str">
         <f t="shared" si="30"/>
@@ -4231,7 +4240,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C117" t="str">
         <f t="shared" si="30"/>
         <v/>
@@ -4245,12 +4254,12 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" t="str">
         <f t="shared" si="30"/>
@@ -4265,9 +4274,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C119" t="str">
         <f t="shared" si="30"/>
@@ -4282,7 +4291,7 @@
         <v>별아이디</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>70</v>
       </c>
@@ -4299,7 +4308,7 @@
         <v>결제시각</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>71</v>
       </c>
@@ -4316,12 +4325,12 @@
         <v>유효여부</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" t="str">
         <f t="shared" ref="C123:C131" si="33">RIGHT(B123,2)</f>
@@ -4336,9 +4345,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" s="2" t="str">
         <f t="shared" si="33"/>
@@ -4353,9 +4362,9 @@
         <v>활용방식</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" t="str">
         <f t="shared" si="33"/>
@@ -4370,9 +4379,9 @@
         <v>용포인트</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" t="str">
         <f t="shared" si="33"/>
@@ -4387,9 +4396,9 @@
         <v>원아이디</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" t="str">
         <f t="shared" si="33"/>
@@ -4404,7 +4413,7 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C128" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -4418,12 +4427,12 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" t="str">
         <f t="shared" si="33"/>
@@ -4438,9 +4447,9 @@
         <v>식별문자</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C130" t="str">
         <f t="shared" si="33"/>
@@ -4455,7 +4464,7 @@
         <v>_아이디</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>73</v>
       </c>
@@ -4490,32 +4499,32 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="25.58203125" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" customWidth="1"/>
-    <col min="5" max="5" width="30.58203125" customWidth="1"/>
+    <col min="1" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -4523,117 +4532,117 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>42</v>
       </c>
@@ -4641,13 +4650,13 @@
         <v>42</v>
       </c>
       <c r="D14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" t="s">
         <v>266</v>
       </c>
-      <c r="E14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -4655,695 +4664,695 @@
         <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
+      <c r="E18" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
         <v>132</v>
       </c>
-      <c r="D17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="s">
-        <v>255</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" t="s">
+        <v>261</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="4" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
         <v>197</v>
       </c>
-      <c r="D27" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>275</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C33" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>200</v>
-      </c>
-      <c r="D31" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
         <v>210</v>
-      </c>
-      <c r="B39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
-        <v>211</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" t="s">
         <v>279</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
         <v>102</v>
       </c>
-      <c r="D41" t="s">
-        <v>278</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D42" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" t="s">
-        <v>278</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" t="s">
-        <v>278</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C44" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" t="s">
-        <v>278</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" t="s">
-        <v>278</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
         <v>217</v>
       </c>
-      <c r="C46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="D47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" t="s">
         <v>219</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D48" t="s">
+        <v>277</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
         <v>218</v>
       </c>
-      <c r="D47" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="C49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" t="s">
-        <v>278</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="E51" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" t="s">
-        <v>278</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="E53" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E51" s="5" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C52" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" s="5" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C53" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="E58" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C54" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="E59" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C56" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="E60" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
         <v>253</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C61" t="s">
         <v>230</v>
       </c>
-      <c r="D58" t="s">
-        <v>287</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="D61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" t="s">
+        <v>234</v>
+      </c>
+      <c r="D63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" t="s">
-        <v>232</v>
-      </c>
-      <c r="D59" t="s">
-        <v>287</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="E64" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>236</v>
+      </c>
+      <c r="D65" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>253</v>
-      </c>
-      <c r="C60" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" t="s">
-        <v>287</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B61" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" t="s">
-        <v>231</v>
-      </c>
-      <c r="D61" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B62" t="s">
-        <v>254</v>
-      </c>
-      <c r="C62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D62" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>254</v>
-      </c>
-      <c r="C63" t="s">
-        <v>235</v>
-      </c>
-      <c r="D63" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C64" t="s">
-        <v>236</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E65" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="E64" s="6" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>245</v>
+      </c>
+      <c r="D69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>247</v>
+      </c>
+      <c r="D75" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C65" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" t="s">
-        <v>289</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="E75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>133</v>
+      </c>
+      <c r="D76" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C68" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C69" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C70" t="s">
-        <v>241</v>
-      </c>
-      <c r="D70" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C71" t="s">
-        <v>242</v>
-      </c>
-      <c r="D71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C72" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C73" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>247</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="E76" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>248</v>
-      </c>
-      <c r="D75" t="s">
-        <v>291</v>
-      </c>
-      <c r="E75" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C76" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" t="s">
-        <v>291</v>
-      </c>
-      <c r="E76" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>249</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
       <c r="D78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C79" t="s">
-        <v>108</v>
-      </c>
-      <c r="D79" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C80" t="s">
-        <v>140</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E82" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C83" t="s">
         <v>68</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" t="s">
         <v>251</v>
-      </c>
-      <c r="B85" t="s">
-        <v>252</v>
       </c>
       <c r="C85" t="s">
         <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" t="s">
+        <v>299</v>
+      </c>
+      <c r="E86" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>252</v>
-      </c>
-      <c r="C86" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86" t="s">
-        <v>300</v>
-      </c>
-      <c r="E86" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -5357,20 +5366,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC3FF3-2498-43FB-A9BA-0354117F8A74}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" customWidth="1"/>
-    <col min="3" max="5" width="20.58203125" customWidth="1"/>
-    <col min="6" max="9" width="10.58203125" customWidth="1"/>
-    <col min="10" max="10" width="50.58203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.59765625" customWidth="1"/>
+    <col min="3" max="5" width="20.59765625" customWidth="1"/>
+    <col min="6" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="50.59765625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5384,7 +5393,7 @@
         <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>95</v>
@@ -5396,13 +5405,13 @@
         <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5410,96 +5419,96 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -5507,17 +5516,17 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -5525,17 +5534,17 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -5543,19 +5552,19 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>28</v>
       </c>
@@ -5563,19 +5572,19 @@
         <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>29</v>
       </c>
@@ -5583,25 +5592,25 @@
         <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -5609,13 +5618,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>95</v>
@@ -5624,56 +5633,56 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -5682,13 +5691,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5696,13 +5705,13 @@
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>95</v>
@@ -5711,43 +5720,43 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7">
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -5756,13 +5765,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -5770,13 +5779,13 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>95</v>
@@ -5785,136 +5794,136 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>95</v>
@@ -5923,45 +5932,45 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E33" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>95</v>
@@ -5970,7 +5979,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -5978,17 +5987,17 @@
         <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -5996,17 +6005,17 @@
         <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>50</v>
       </c>
@@ -6014,17 +6023,17 @@
         <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>51</v>
       </c>
@@ -6032,17 +6041,17 @@
         <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>52</v>
       </c>
@@ -6050,10 +6059,10 @@
         <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -6062,27 +6071,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E40" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>95</v>
@@ -6091,7 +6100,7 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -6099,17 +6108,17 @@
         <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E41" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
         <v>55</v>
       </c>
@@ -6117,17 +6126,17 @@
         <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>56</v>
       </c>
@@ -6135,17 +6144,17 @@
         <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>57</v>
       </c>
@@ -6153,17 +6162,17 @@
         <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E44" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>58</v>
       </c>
@@ -6171,17 +6180,17 @@
         <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>59</v>
       </c>
@@ -6189,10 +6198,10 @@
         <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -6201,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>60</v>
       </c>
@@ -6209,37 +6218,37 @@
         <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>95</v>
@@ -6248,45 +6257,45 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>95</v>
@@ -6295,49 +6304,49 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -6345,48 +6354,48 @@
         <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E56" t="s">
+        <v>380</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -6394,68 +6403,68 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E59" t="s">
+        <v>380</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>31</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -6463,55 +6472,55 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E65" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
@@ -6520,13 +6529,13 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -6534,33 +6543,33 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>38</v>
       </c>
       <c r="C68" t="s">
+        <v>350</v>
+      </c>
+      <c r="D68" t="s">
         <v>351</v>
       </c>
-      <c r="D68" t="s">
-        <v>352</v>
-      </c>
       <c r="E68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>95</v>
@@ -6569,7 +6578,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>34</v>
       </c>
@@ -6577,10 +6586,10 @@
         <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
@@ -6589,71 +6598,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D70" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E71" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -6661,66 +6670,66 @@
         <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>41</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E76" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -6728,33 +6737,33 @@
         <v>42</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
@@ -6763,89 +6772,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E80" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E82" t="s">
+        <v>380</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E84" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -6854,92 +6863,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D90" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E90" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>95</v>
@@ -6948,67 +6957,67 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s">
         <v>69</v>
       </c>
       <c r="D94" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E94" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>95</v>
@@ -7017,7 +7026,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
         <v>72</v>
       </c>
@@ -7025,10 +7034,10 @@
         <v>72</v>
       </c>
       <c r="D95" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E95" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
@@ -7037,114 +7046,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D97" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E99" t="s">
+        <v>380</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
         <v>112</v>
       </c>
-      <c r="B102" t="s">
-        <v>113</v>
-      </c>
       <c r="C102" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>95</v>
@@ -7153,65 +7162,65 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I104" s="7"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D106" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>95</v>
@@ -7220,65 +7229,65 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D108" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E108" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I108" s="7"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D110" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>95</v>
@@ -7287,132 +7296,132 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D111" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E111" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D113" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E113" t="s">
+        <v>380</v>
+      </c>
+      <c r="F113" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D114" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E114" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D115" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E115" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D118" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>95</v>
@@ -7421,18 +7430,18 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D119" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>95</v>
@@ -7441,7 +7450,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>70</v>
       </c>
@@ -7449,17 +7458,17 @@
         <v>70</v>
       </c>
       <c r="D120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>71</v>
       </c>
@@ -7467,10 +7476,10 @@
         <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
@@ -7479,132 +7488,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E123" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E124" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D126" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E126" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E127" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E129" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>95</v>
@@ -7613,18 +7622,18 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E130" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>95</v>
@@ -7633,7 +7642,7 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>73</v>
       </c>
@@ -7641,10 +7650,10 @@
         <v>73</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E131" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="7"/>
